--- a/app/Licenciatura_em_Gestao_de_Empresas.xlsx
+++ b/app/Licenciatura_em_Gestao_de_Empresas.xlsx
@@ -12,36 +12,35 @@
     <sheet name="20152910" sheetId="2" r:id="rId5"/>
     <sheet name="20152915" sheetId="3" r:id="rId6"/>
     <sheet name="20152902" sheetId="4" r:id="rId7"/>
-    <sheet name="20154456" sheetId="5" r:id="rId8"/>
-    <sheet name="20152898" sheetId="6" r:id="rId9"/>
-    <sheet name="20152894" sheetId="7" r:id="rId10"/>
-    <sheet name="20152890" sheetId="8" r:id="rId11"/>
-    <sheet name="20152906" sheetId="9" r:id="rId12"/>
-    <sheet name="20152918" sheetId="10" r:id="rId13"/>
-    <sheet name="20152907" sheetId="11" r:id="rId14"/>
-    <sheet name="20152917" sheetId="12" r:id="rId15"/>
-    <sheet name="20152903" sheetId="13" r:id="rId16"/>
-    <sheet name="20152901" sheetId="14" r:id="rId17"/>
-    <sheet name="20152912" sheetId="15" r:id="rId18"/>
-    <sheet name="20152895" sheetId="16" r:id="rId19"/>
-    <sheet name="20152911" sheetId="17" r:id="rId20"/>
-    <sheet name="20152904" sheetId="18" r:id="rId21"/>
-    <sheet name="20152892" sheetId="19" r:id="rId22"/>
-    <sheet name="20152891" sheetId="20" r:id="rId23"/>
-    <sheet name="20152916" sheetId="21" r:id="rId24"/>
-    <sheet name="20152899" sheetId="22" r:id="rId25"/>
-    <sheet name="20152914" sheetId="23" r:id="rId26"/>
-    <sheet name="20152897" sheetId="24" r:id="rId27"/>
-    <sheet name="20152896" sheetId="25" r:id="rId28"/>
-    <sheet name="20152900" sheetId="26" r:id="rId29"/>
-    <sheet name="20152908" sheetId="27" r:id="rId30"/>
-    <sheet name="20152893" sheetId="28" r:id="rId31"/>
-    <sheet name="20152913" sheetId="29" r:id="rId32"/>
-    <sheet name="20152919" sheetId="30" r:id="rId33"/>
-    <sheet name="20152905" sheetId="31" r:id="rId34"/>
-    <sheet name="20152909" sheetId="32" r:id="rId35"/>
-    <sheet name="Sheet2" sheetId="33" r:id="rId36"/>
-    <sheet name="Sheet3" sheetId="34" r:id="rId37"/>
+    <sheet name="20152898" sheetId="5" r:id="rId8"/>
+    <sheet name="20152894" sheetId="6" r:id="rId9"/>
+    <sheet name="20152890" sheetId="7" r:id="rId10"/>
+    <sheet name="20152906" sheetId="8" r:id="rId11"/>
+    <sheet name="20152918" sheetId="9" r:id="rId12"/>
+    <sheet name="20152907" sheetId="10" r:id="rId13"/>
+    <sheet name="20152917" sheetId="11" r:id="rId14"/>
+    <sheet name="20152903" sheetId="12" r:id="rId15"/>
+    <sheet name="20152901" sheetId="13" r:id="rId16"/>
+    <sheet name="20152912" sheetId="14" r:id="rId17"/>
+    <sheet name="20152895" sheetId="15" r:id="rId18"/>
+    <sheet name="20152911" sheetId="16" r:id="rId19"/>
+    <sheet name="20152904" sheetId="17" r:id="rId20"/>
+    <sheet name="20152892" sheetId="18" r:id="rId21"/>
+    <sheet name="20152891" sheetId="19" r:id="rId22"/>
+    <sheet name="20152916" sheetId="20" r:id="rId23"/>
+    <sheet name="20152899" sheetId="21" r:id="rId24"/>
+    <sheet name="20152914" sheetId="22" r:id="rId25"/>
+    <sheet name="20152897" sheetId="23" r:id="rId26"/>
+    <sheet name="20152896" sheetId="24" r:id="rId27"/>
+    <sheet name="20152900" sheetId="25" r:id="rId28"/>
+    <sheet name="20152908" sheetId="26" r:id="rId29"/>
+    <sheet name="20152893" sheetId="27" r:id="rId30"/>
+    <sheet name="20152913" sheetId="28" r:id="rId31"/>
+    <sheet name="20152919" sheetId="29" r:id="rId32"/>
+    <sheet name="20152905" sheetId="30" r:id="rId33"/>
+    <sheet name="20152909" sheetId="31" r:id="rId34"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId35"/>
+    <sheet name="Sheet3" sheetId="33" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -198,9 +197,6 @@
     <t>Isilda Amaral</t>
   </si>
   <si>
-    <t>Cidade de Inhambane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -237,9 +233,6 @@
     <t>Lurdes Jaime Tamele</t>
   </si>
   <si>
-    <t>Distrito de Bilene</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -267,9 +260,6 @@
     <t>Maria Samuel Mondlane</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>090100270093B</t>
   </si>
   <si>
@@ -279,15 +269,6 @@
     <t>Escola Secundaria do Xai-Xai</t>
   </si>
   <si>
-    <t>Samuel</t>
-  </si>
-  <si>
-    <t>Olavo Silva</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>RaÚl</t>
   </si>
   <si>
@@ -303,9 +284,6 @@
     <t>Maria Victor</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>040104119052Q</t>
   </si>
   <si>
@@ -330,9 +308,6 @@
     <t>Domingas F. A. Carmona</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>Talao de Bilhete de Identificacao</t>
   </si>
   <si>
@@ -357,9 +332,6 @@
     <t>Elizabeth Tchombene</t>
   </si>
   <si>
-    <t>Distrito de Chibuto</t>
-  </si>
-  <si>
     <t>110100620879N</t>
   </si>
   <si>
@@ -447,9 +419,6 @@
     <t>Horquidia Benjamim Nhate</t>
   </si>
   <si>
-    <t>Distrito de Inharrime</t>
-  </si>
-  <si>
     <t>090100684893A</t>
   </si>
   <si>
@@ -474,9 +443,6 @@
     <t>Anatercia Teresa Novela</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110101474901P</t>
   </si>
   <si>
@@ -501,9 +467,6 @@
     <t>Amelia Gonzaga Doringuira</t>
   </si>
   <si>
-    <t>Cidade de Chimoio</t>
-  </si>
-  <si>
     <t>060100191776B</t>
   </si>
   <si>
@@ -525,9 +488,6 @@
     <t>Alfredo Joao Mussa</t>
   </si>
   <si>
-    <t>Distrito de Chókwé</t>
-  </si>
-  <si>
     <t>090601467237B</t>
   </si>
   <si>
@@ -744,9 +704,6 @@
     <t>Assa Francisco Machava</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110300604778P</t>
   </si>
   <si>
@@ -876,9 +833,6 @@
     <t>Gloria Fernando Manjte</t>
   </si>
   <si>
-    <t>Distrito de Magude</t>
-  </si>
-  <si>
     <t>100301945847S</t>
   </si>
   <si>
@@ -898,9 +852,6 @@
   </si>
   <si>
     <t>Rosa Branca Xavier</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamubukwana</t>
   </si>
   <si>
     <t>Talao de Carta de Conducao</t>
@@ -2142,7 +2093,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152918</v>
+        <v>20152907</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2166,7 +2117,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2182,7 +2133,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2198,7 +2149,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2214,7 +2165,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2230,7 +2181,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2245,9 +2196,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2255,7 +2204,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2266,7 +2215,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2275,7 +2224,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2287,15 +2236,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>3779952</v>
+      <c r="H17" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2391,7 +2340,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2418,7 +2367,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -2434,7 +2383,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2737,7 +2686,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152907</v>
+        <v>20152917</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2761,7 +2710,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2777,7 +2726,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2793,7 +2742,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2809,7 +2758,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2825,7 +2774,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2840,9 +2789,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2850,7 +2797,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2861,7 +2808,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2870,7 +2817,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2882,7 +2829,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2890,7 +2837,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2986,7 +2933,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3013,7 +2960,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3029,7 +2976,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3332,7 +3279,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152917</v>
+        <v>20152903</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3356,7 +3303,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3372,7 +3319,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3388,7 +3335,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3404,7 +3351,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3420,7 +3367,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3435,9 +3382,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>132</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3445,7 +3390,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3456,7 +3401,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3465,7 +3410,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3477,7 +3422,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3485,7 +3430,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3581,7 +3526,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3608,7 +3553,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3624,7 +3569,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3927,7 +3872,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152903</v>
+        <v>20152901</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3951,7 +3896,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3967,7 +3912,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3983,7 +3928,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3999,7 +3944,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4015,7 +3960,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4030,9 +3975,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4040,7 +3983,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4051,7 +3994,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4060,7 +4003,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4072,7 +4015,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4080,7 +4023,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4176,7 +4119,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4203,7 +4146,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4219,7 +4162,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4522,7 +4465,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152901</v>
+        <v>20152912</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4546,7 +4489,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4562,7 +4505,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4578,7 +4521,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4594,7 +4537,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4609,9 +4552,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>149</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -4625,9 +4566,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>150</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4635,7 +4574,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4646,7 +4585,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4655,7 +4594,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4667,7 +4606,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4675,7 +4614,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4771,7 +4710,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4814,7 +4753,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5117,7 +5056,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152912</v>
+        <v>20152895</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5141,7 +5080,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5157,7 +5096,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5173,7 +5112,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5189,7 +5128,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5204,7 +5143,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>153</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -5218,9 +5159,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>158</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5228,7 +5167,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5239,7 +5178,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5248,7 +5187,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5260,7 +5199,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5268,7 +5207,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5364,7 +5303,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5407,7 +5346,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5710,7 +5649,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152895</v>
+        <v>20152911</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5734,7 +5673,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5750,7 +5689,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5766,7 +5705,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5782,7 +5721,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5798,7 +5737,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5813,9 +5752,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5823,7 +5760,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5834,7 +5771,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5843,7 +5780,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5855,7 +5792,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5863,7 +5800,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5959,7 +5896,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5986,7 +5923,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6002,7 +5939,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6305,7 +6242,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152911</v>
+        <v>20152904</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6329,7 +6266,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6345,7 +6282,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6361,7 +6298,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6377,7 +6314,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6393,7 +6330,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6408,9 +6345,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6418,7 +6353,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6429,7 +6364,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6438,7 +6373,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6450,7 +6385,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6458,7 +6393,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6554,7 +6489,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6597,7 +6532,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6900,7 +6835,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152904</v>
+        <v>20152892</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6924,7 +6859,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6940,7 +6875,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6956,7 +6891,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6972,7 +6907,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6988,7 +6923,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7003,9 +6938,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7013,7 +6946,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7024,7 +6957,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7033,7 +6966,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7045,7 +6978,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7053,7 +6986,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7149,7 +7082,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7192,7 +7125,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7495,7 +7428,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152892</v>
+        <v>20152891</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7519,7 +7452,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7535,7 +7468,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7551,7 +7484,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7567,7 +7500,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7583,7 +7516,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7598,9 +7531,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7608,7 +7539,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7619,7 +7550,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7628,7 +7559,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7640,7 +7571,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7648,7 +7579,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7744,7 +7675,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7787,7 +7718,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8193,9 +8124,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8203,7 +8132,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8214,7 +8143,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8223,7 +8152,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8235,7 +8164,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8243,7 +8172,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8339,7 +8268,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8382,7 +8311,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8685,7 +8614,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152891</v>
+        <v>20152916</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8709,7 +8638,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8725,7 +8654,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8741,7 +8670,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8757,7 +8686,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8773,7 +8702,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8788,9 +8717,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8798,7 +8725,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8809,7 +8736,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8818,7 +8745,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8830,7 +8757,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8838,7 +8765,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8934,7 +8861,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8961,7 +8888,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -8977,7 +8904,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9280,7 +9207,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152916</v>
+        <v>20152899</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9304,7 +9231,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9320,7 +9247,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9336,7 +9263,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9352,7 +9279,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9368,7 +9295,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9383,9 +9310,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9393,7 +9318,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9404,7 +9329,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9413,7 +9338,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9425,7 +9350,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9433,7 +9358,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9529,7 +9454,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9572,7 +9497,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9875,7 +9800,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152899</v>
+        <v>20152914</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9899,7 +9824,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9915,7 +9840,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9931,7 +9856,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9947,7 +9872,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9963,7 +9888,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9978,9 +9903,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9988,7 +9911,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9999,7 +9922,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10008,7 +9931,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10020,7 +9943,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10028,7 +9951,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10124,7 +10047,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10167,7 +10090,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10470,7 +10393,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152914</v>
+        <v>20152897</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10494,7 +10417,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10510,7 +10433,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10526,7 +10449,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10542,7 +10465,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10558,7 +10481,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10573,9 +10496,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10583,7 +10504,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10594,7 +10515,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10603,7 +10524,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10615,7 +10536,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10623,7 +10544,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10719,7 +10640,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10762,7 +10683,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11065,7 +10986,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152897</v>
+        <v>20152896</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11089,7 +11010,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11105,7 +11026,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11121,7 +11042,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11137,7 +11058,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11153,7 +11074,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11168,9 +11089,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11178,7 +11097,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11189,7 +11108,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11198,7 +11117,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11210,7 +11129,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11218,7 +11137,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11314,7 +11233,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11341,7 +11260,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11357,7 +11276,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11660,7 +11579,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152896</v>
+        <v>20152900</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11684,7 +11603,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11700,7 +11619,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11716,7 +11635,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11732,7 +11651,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11748,7 +11667,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11763,9 +11682,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>231</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11773,7 +11690,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11784,7 +11701,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11793,7 +11710,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11805,7 +11722,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11813,7 +11730,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11909,7 +11826,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11936,7 +11853,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11952,7 +11869,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>234</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12255,7 +12172,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152900</v>
+        <v>20152908</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12279,7 +12196,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12295,7 +12212,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12311,7 +12228,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12327,7 +12244,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12343,7 +12260,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12358,9 +12275,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12368,7 +12283,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12379,7 +12294,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12388,7 +12303,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12400,7 +12315,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12408,7 +12323,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12504,7 +12419,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12547,7 +12462,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12850,7 +12765,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152908</v>
+        <v>20152893</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12874,7 +12789,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12890,7 +12805,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12906,7 +12821,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12922,7 +12837,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12938,7 +12853,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12953,9 +12868,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12963,7 +12876,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12974,7 +12887,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12983,7 +12896,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12995,7 +12908,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13003,7 +12916,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13099,7 +13012,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13142,7 +13055,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>242</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13445,7 +13358,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152893</v>
+        <v>20152913</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13469,7 +13382,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13485,7 +13398,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13501,7 +13414,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13517,7 +13430,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13533,7 +13446,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13548,9 +13461,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13558,7 +13469,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13569,7 +13480,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13578,7 +13489,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13590,7 +13501,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13598,7 +13509,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13694,7 +13605,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13721,7 +13632,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13737,7 +13648,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14040,7 +13951,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152913</v>
+        <v>20152919</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14064,7 +13975,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14080,7 +13991,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14096,7 +14007,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14112,7 +14023,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14128,7 +14039,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14143,9 +14054,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14153,7 +14062,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14164,7 +14073,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14173,7 +14082,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14185,15 +14094,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>262</v>
+      <c r="H17" s="20">
+        <v>90101106391</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14289,7 +14198,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14332,7 +14241,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14659,7 +14568,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14675,7 +14584,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14691,7 +14600,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14707,7 +14616,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14723,7 +14632,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14738,9 +14647,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14748,7 +14655,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14759,7 +14666,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14768,7 +14675,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14780,7 +14687,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14788,7 +14695,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14884,7 +14791,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14927,7 +14834,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15230,7 +15137,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152919</v>
+        <v>20152905</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15254,7 +15161,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15270,7 +15177,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15286,7 +15193,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15302,7 +15209,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15318,7 +15225,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15333,9 +15240,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15343,7 +15248,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15354,7 +15259,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15363,7 +15268,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15375,15 +15280,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>90101106391</v>
+      <c r="H17" s="20" t="s">
+        <v>261</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15479,7 +15384,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15506,7 +15411,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15522,7 +15427,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15825,7 +15730,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152905</v>
+        <v>20152909</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15849,7 +15754,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15865,7 +15770,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15881,7 +15786,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15897,7 +15802,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15913,7 +15818,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15928,9 +15833,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>275</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15938,7 +15841,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15949,7 +15852,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15958,7 +15861,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15970,15 +15873,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>268</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>276</v>
+      <c r="H17" s="20">
+        <v>3574284</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16074,7 +15977,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16101,7 +16004,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16117,7 +16020,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16320,601 +16223,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20152909</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>3574284</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>285</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -16938,7 +16246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17095,7 +16403,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17111,7 +16419,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17127,7 +16435,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17143,7 +16451,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17159,7 +16467,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17174,9 +16482,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17184,7 +16490,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17195,7 +16501,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17204,7 +16510,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17216,7 +16522,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17224,7 +16530,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17320,7 +16626,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17363,7 +16669,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17614,7 +16920,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -17664,7 +16972,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154456</v>
+        <v>20152898</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17688,7 +16996,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17704,7 +17012,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17719,7 +17027,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -17733,7 +17043,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -17747,7 +17059,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -17768,7 +17082,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -17777,14 +17093,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -17794,13 +17114,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -17895,7 +17219,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17921,7 +17245,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -17935,7 +17261,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -18237,7 +17565,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152898</v>
+        <v>20152894</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18261,7 +17589,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18277,7 +17605,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18293,7 +17621,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18309,7 +17637,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18325,7 +17653,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18340,9 +17668,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>84</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18350,7 +17676,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18361,7 +17687,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18370,7 +17696,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18382,15 +17708,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>85</v>
+      <c r="H17" s="20">
+        <v>638044</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18486,7 +17812,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18513,7 +17839,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -18529,7 +17855,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18832,7 +18158,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152894</v>
+        <v>20152890</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18856,7 +18182,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18872,7 +18198,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18888,7 +18214,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18904,7 +18230,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18920,7 +18246,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18935,9 +18261,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>93</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18945,7 +18269,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18956,7 +18280,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18965,7 +18289,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18977,15 +18301,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>638044</v>
+      <c r="H17" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19427,7 +18751,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152890</v>
+        <v>20152906</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19530,9 +18854,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>102</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19540,7 +18862,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19551,7 +18873,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19560,7 +18882,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19572,7 +18894,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19580,7 +18902,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19676,7 +18998,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19703,7 +19025,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19719,7 +19041,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20022,7 +19344,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152906</v>
+        <v>20152918</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20046,7 +19368,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20062,7 +19384,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20078,7 +19400,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20094,7 +19416,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20110,7 +19432,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20125,9 +19447,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20135,7 +19455,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20146,7 +19466,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20155,7 +19475,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20167,15 +19487,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>111</v>
+      <c r="H17" s="20">
+        <v>3779952</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20271,7 +19591,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20314,7 +19634,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
